--- a/Experiment 4 - Indoors 2.4GHz/House testing results 2.4GHz.xlsx
+++ b/Experiment 4 - Indoors 2.4GHz/House testing results 2.4GHz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/CE301 - Individual project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 4 - Indoors 2.4GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{E575508E-130E-456C-B62B-A1BD7D134186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DB118A88-3D01-4AE9-9F93-F2CAFFD6B825}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{E575508E-130E-456C-B62B-A1BD7D134186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5669351C-0E02-4712-B77E-97EE0236F6CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D55170C-3F5D-4CF9-AAB8-AD5BB7E216DB}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$27</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$B$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,9 +47,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Signal Strength (dbm)</t>
-  </si>
-  <si>
     <t>HUB</t>
   </si>
   <si>
@@ -123,6 +117,9 @@
   </si>
   <si>
     <t>Bathroom</t>
+  </si>
+  <si>
+    <t>Signal Strength (dBm)</t>
   </si>
 </sst>
 </file>
@@ -230,7 +227,7 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>Signal Strength (dbm)</cx:v>
+              <cx:v>Signal Strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -925,6 +922,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBF0FEF6-59DC-482E-939B-3C514843D0B2}" name="Table1" displayName="Table1" ref="A3:B27" totalsRowShown="0">
+  <autoFilter ref="A3:B27" xr:uid="{CBFE9D2F-17AB-4441-838A-BF35B1099CD3}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{70A1FE4C-4EFE-4609-8ED5-BEF2DBEA14FC}" name="Area"/>
+    <tableColumn id="2" xr3:uid="{F96AF0BE-B016-46AA-994A-54F38F053624}" name="Signal Strength (dBm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1227,13 +1238,13 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,12 +1257,12 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-65</v>
@@ -1259,7 +1270,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>-45</v>
@@ -1267,7 +1278,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>-17</v>
@@ -1275,7 +1286,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-56</v>
@@ -1283,7 +1294,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-53</v>
@@ -1291,7 +1302,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>-46</v>
@@ -1299,7 +1310,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>-50</v>
@@ -1307,7 +1318,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>-67</v>
@@ -1315,7 +1326,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>-67</v>
@@ -1323,7 +1334,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>-62</v>
@@ -1331,7 +1342,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>-54</v>
@@ -1339,7 +1350,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-47</v>
@@ -1347,7 +1358,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-67</v>
@@ -1355,7 +1366,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>-69</v>
@@ -1363,7 +1374,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>-69</v>
@@ -1371,7 +1382,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>-65</v>
@@ -1379,7 +1390,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>-60</v>
@@ -1387,7 +1398,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>-80</v>
@@ -1395,7 +1406,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>-70</v>
@@ -1403,7 +1414,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>-78</v>
@@ -1411,7 +1422,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>-78</v>
@@ -1419,7 +1430,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>-78</v>
@@ -1427,7 +1438,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>-60</v>
@@ -1435,7 +1446,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>-63</v>
@@ -1445,5 +1456,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Experiment 4 - Indoors 2.4GHz/House testing results 2.4GHz.xlsx
+++ b/Experiment 4 - Indoors 2.4GHz/House testing results 2.4GHz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 4 - Indoors 2.4GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{E575508E-130E-456C-B62B-A1BD7D134186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5669351C-0E02-4712-B77E-97EE0236F6CB}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{E575508E-130E-456C-B62B-A1BD7D134186}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3362CE0C-6538-43BF-AEE2-8AD806EC7A91}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D55170C-3F5D-4CF9-AAB8-AD5BB7E216DB}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$27</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$B$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,15 +89,6 @@
     <t>2nd floor room (NE side)</t>
   </si>
   <si>
-    <t>3rd floor room (SE side)</t>
-  </si>
-  <si>
-    <t>4th floor room (SW side)</t>
-  </si>
-  <si>
-    <t>5th floor room (NW side)</t>
-  </si>
-  <si>
     <t>Room open</t>
   </si>
   <si>
@@ -120,6 +114,15 @@
   </si>
   <si>
     <t>Signal Strength (dBm)</t>
+  </si>
+  <si>
+    <t>2nd floor room (SE side)</t>
+  </si>
+  <si>
+    <t>2nd floor room (SW side)</t>
+  </si>
+  <si>
+    <t>2nd floor room (NW side)</t>
   </si>
 </sst>
 </file>
@@ -185,10 +188,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -226,7 +229,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{10120CC7-F210-4486-931D-FB30543B32B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Signal Strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -890,7 +893,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3268980" y="228600"/>
+              <a:off x="3489960" y="228600"/>
               <a:ext cx="6385560" cy="4511040"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1238,7 +1241,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,7 +1369,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>-69</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>-69</v>
@@ -1382,7 +1385,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>-65</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>-60</v>
@@ -1398,7 +1401,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>-80</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>-70</v>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>-78</v>
@@ -1422,7 +1425,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>-78</v>
@@ -1430,7 +1433,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>-78</v>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>-60</v>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>-63</v>

--- a/Experiment 4 - Indoors 2.4GHz/House testing results 2.4GHz.xlsx
+++ b/Experiment 4 - Indoors 2.4GHz/House testing results 2.4GHz.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,9 +19,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$27</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$B$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -188,10 +185,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -229,7 +226,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{10120CC7-F210-4486-931D-FB30543B32B8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Signal Strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1241,7 +1238,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="A3" sqref="A3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
